--- a/gasPrices.xlsx
+++ b/gasPrices.xlsx
@@ -435,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -958,6 +958,1071 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>08/08/2023 12</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>08/08/2023 13</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>74.91</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>08/08/2023 14</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>361.12</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>08/08/2023 15</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>256.07</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>08/08/2023 16</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>591.74</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>08/08/2023 17</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>361.39</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>08/08/2023 18</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>262.38</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>08/08/2023 19</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>398.93</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>08/08/2023 20</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>84.42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>08/08/2023 21</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>97.65000000000001</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>08/08/2023 22</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>65.98</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>08/08/2023 23</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>335.67</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>08/08/2023 24</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>492.93</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>08/09/2023 01</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>75.09</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>08/09/2023 02</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>59.49</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>08/09/2023 03</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>48.07</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>08/09/2023 04</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>08/09/2023 05</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>08/09/2023 06</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>52.05</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>08/09/2023 07</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>145.88</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>08/09/2023 08</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>08/09/2023 09</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>08/09/2023 10</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>87.65000000000001</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>08/09/2023 11</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>50.99</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>08/09/2023 12</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>53.97</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>08/09/2023 13</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>53.26</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>08/09/2023 14</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>08/09/2023 15</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>57.41</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>08/09/2023 16</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>49</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>08/09/2023 17</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>08/09/2023 18</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>08/09/2023 19</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>35.01</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>08/09/2023 20</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>38.19</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>08/09/2023 21</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>44.76</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>08/09/2023 22</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>08/09/2023 23</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>08/09/2023 24</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>08/10/2023 01</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>45.34</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>08/10/2023 02</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>44.79</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>08/10/2023 03</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>08/10/2023 04</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>08/10/2023 05</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>51.07</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>08/10/2023 06</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>50.44</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>08/10/2023 07</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>56.59</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>08/10/2023 08</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>45.61</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>08/10/2023 09</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>43.32</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>08/10/2023 10</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>37.78</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>08/10/2023 11</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>08/10/2023 12</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>36.52</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>08/10/2023 13</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>08/10/2023 14</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>48.11</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>08/10/2023 15</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>08/10/2023 16</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>51.81</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>08/10/2023 17</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>49.45</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>08/10/2023 18</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>42.58</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>08/10/2023 19</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>46.59</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>08/10/2023 20</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>49.92</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>08/10/2023 21</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>71.45</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>08/10/2023 22</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>250</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>08/10/2023 23</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>173.96</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>08/10/2023 24</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>73.39</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>08/11/2023 01</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>08/11/2023 02</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>60.04</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>08/11/2023 03</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>50.48</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>08/11/2023 04</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>08/11/2023 05</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>08/11/2023 06</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>08/11/2023 07</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>48.03</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>08/11/2023 08</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>46.79</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>08/11/2023 09</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>08/11/2023 10</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gasPrices.xlsx
+++ b/gasPrices.xlsx
@@ -435,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2015,9 +2015,639 @@
         </is>
       </c>
       <c r="B105" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>08/11/2023 11</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>44.82</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>08/11/2023 12</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>46.16</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>08/11/2023 13</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>48.49</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>08/11/2023 14</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>51.24</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>08/11/2023 15</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>54.65</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>08/11/2023 16</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>53</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>08/11/2023 17</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>08/11/2023 18</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>08/11/2023 19</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>55.95</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>08/11/2023 20</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>239.28</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>08/11/2023 21</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>592.0700000000001</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>08/11/2023 22</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>582.3</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>08/11/2023 23</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>430.45</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>08/11/2023 24</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>320.9</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>08/12/2023 01</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>491</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>08/12/2023 02</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>341.07</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>08/12/2023 03</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>08/12/2023 04</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
         <v>-1</v>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>08/14/2023 09</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>08/14/2023 10</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>08/14/2023 11</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>77.76000000000001</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>08/14/2023 12</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>218.46</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>08/14/2023 19</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>491.44</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>08/14/2023 20</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>710.03</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>08/14/2023 21</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>559.89</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>08/14/2023 22</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>349.73</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>08/14/2023 23</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>233.76</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>08/14/2023 24</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>173.86</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>08/15/2023 01</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>142.91</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>08/15/2023 02</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>08/15/2023 03</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>53.17</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>08/15/2023 04</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>49.28</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>08/15/2023 05</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>59.62</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>08/15/2023 06</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>155.44</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>08/15/2023 07</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>273.66</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>08/15/2023 08</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>71.54000000000001</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>08/15/2023 09</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>320.14</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>08/15/2023 10</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>111.68</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>08/15/2023 11</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>101.28</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>08/15/2023 12</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>117.42</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>08/15/2023 13</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>269.41</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>08/15/2023 14</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t>-</t>
         </is>
